--- a/GameplayBugs.xlsx
+++ b/GameplayBugs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Header</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Projectile: If enemy is too close it do not hit it</t>
+  </si>
+  <si>
+    <t>BlockMove - Animation could not found at assassine</t>
+  </si>
+  <si>
+    <t>get stunned while in air --&gt; slow fall</t>
   </si>
 </sst>
 </file>
@@ -354,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +404,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameplayBugs.xlsx
+++ b/GameplayBugs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Header</t>
   </si>
@@ -43,12 +43,15 @@
   </si>
   <si>
     <t>get stunned while in air --&gt; slow fall</t>
+  </si>
+  <si>
+    <t>Death animation bug after restart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,11 +362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +423,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameplayBugs.xlsx
+++ b/GameplayBugs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -47,17 +47,33 @@
   <si>
     <t>Death animation bug after restart</t>
   </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,15 +87,25 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -362,14 +388,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -403,8 +428,11 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/GameplayBugs.xlsx
+++ b/GameplayBugs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gameplay" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Header</t>
   </si>
@@ -52,28 +52,32 @@
   </si>
   <si>
     <t>Kyle</t>
+  </si>
+  <si>
+    <t>Reviser</t>
+  </si>
+  <si>
+    <t>Sandro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -87,28 +91,19 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -388,27 +383,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -416,26 +415,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -443,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -451,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -461,5 +463,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameplayBugs.xlsx
+++ b/GameplayBugs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Header</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Other actions while dashing are possible</t>
   </si>
   <si>
-    <t>Not Fixed</t>
-  </si>
-  <si>
     <t>First Frame of Animation is wrong</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Sandro</t>
+  </si>
+  <si>
+    <t>Sliding in die animation when killed in air or with knockback</t>
   </si>
 </sst>
 </file>
@@ -384,15 +384,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -404,15 +404,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -420,45 +423,65 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
